--- a/iphone_screentime.xlsx
+++ b/iphone_screentime.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/racheloh/Desktop/Data Science/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/racheloh/Documents/GitHub/iphone_screentime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D630CCC-7B18-F44D-86E5-614C9C3B03F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47C0507-1495-3541-BFCB-7148F6DB034C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{8D646069-E6F6-394D-B3B3-E7D12B46614A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="App Categories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Settings</t>
+  </si>
+  <si>
+    <t>지우셈</t>
   </si>
 </sst>
 </file>
@@ -658,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B59320-2933-854F-A7D5-043708D44B09}">
-  <dimension ref="A1:D343"/>
+  <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D335" sqref="D335"/>
+    <sheetView tabSelected="1" topLeftCell="A337" zoomScale="143" workbookViewId="0">
+      <selection activeCell="A345" sqref="A345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5814,6 +5817,11 @@
       </c>
       <c r="D343">
         <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/iphone_screentime.xlsx
+++ b/iphone_screentime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/racheloh/Documents/GitHub/iphone_screentime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47C0507-1495-3541-BFCB-7148F6DB034C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F8E22A-0129-C044-836D-A1830ADE714A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{8D646069-E6F6-394D-B3B3-E7D12B46614A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -287,9 +287,6 @@
   </si>
   <si>
     <t>Settings</t>
-  </si>
-  <si>
-    <t>지우셈</t>
   </si>
 </sst>
 </file>
@@ -661,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B59320-2933-854F-A7D5-043708D44B09}">
-  <dimension ref="A1:D344"/>
+  <dimension ref="A1:D343"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A337" zoomScale="143" workbookViewId="0">
-      <selection activeCell="A345" sqref="A345"/>
+      <selection activeCell="A344" sqref="A344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5817,11 +5814,6 @@
       </c>
       <c r="D343">
         <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/iphone_screentime.xlsx
+++ b/iphone_screentime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/racheloh/Documents/GitHub/iphone_screentime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F8E22A-0129-C044-836D-A1830ADE714A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F454E4-11FB-454F-93EB-298E679FD8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{8D646069-E6F6-394D-B3B3-E7D12B46614A}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="App Categories" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$343</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -660,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B59320-2933-854F-A7D5-043708D44B09}">
   <dimension ref="A1:D343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" zoomScale="143" workbookViewId="0">
-      <selection activeCell="A344" sqref="A344"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5817,6 +5820,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D343" xr:uid="{78B59320-2933-854F-A7D5-043708D44B09}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5827,7 +5831,7 @@
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/iphone_screentime.xlsx
+++ b/iphone_screentime.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/racheloh/Documents/GitHub/iphone_screentime/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/racheloh/Desktop/iphone_screentime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F454E4-11FB-454F-93EB-298E679FD8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00BEAE0-F85E-3542-8DC6-DF2F6B6706A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{8D646069-E6F6-394D-B3B3-E7D12B46614A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Screen Time" sheetId="1" r:id="rId1"/>
     <sheet name="App Categories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$343</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -290,6 +288,57 @@
   </si>
   <si>
     <t>Settings</t>
+  </si>
+  <si>
+    <t>Mon, Feb 14, 2022</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>asked</t>
+  </si>
+  <si>
+    <t>VSCO</t>
+  </si>
+  <si>
+    <t>Tue, Feb 15, 2022</t>
+  </si>
+  <si>
+    <t>Voice Memos</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Wed, Feb 16, 2022</t>
+  </si>
+  <si>
+    <t>Thu, Feb 17, 2022</t>
+  </si>
+  <si>
+    <t>Fri, Feb 18, 2022</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Reddit</t>
+  </si>
+  <si>
+    <t>Sat, Feb 19, 2022</t>
+  </si>
+  <si>
+    <t>Facetune</t>
+  </si>
+  <si>
+    <t>Sun, Feb 20, 2022</t>
+  </si>
+  <si>
+    <t>Mon, Feb 21, 2022</t>
+  </si>
+  <si>
+    <t>Tue, Feb 22, 2022</t>
   </si>
 </sst>
 </file>
@@ -661,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B59320-2933-854F-A7D5-043708D44B09}">
-  <dimension ref="A1:D343"/>
+  <dimension ref="A1:D460"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -5819,8 +5868,1762 @@
         <v>1</v>
       </c>
     </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B344" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344" t="str">
+        <f>VLOOKUP(B344,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Entertainment</v>
+      </c>
+      <c r="D344">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B345" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345" t="str">
+        <f>VLOOKUP(B345,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D345">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B346" t="s">
+        <v>83</v>
+      </c>
+      <c r="C346" t="str">
+        <f>VLOOKUP(B346,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D346">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B347" t="s">
+        <v>6</v>
+      </c>
+      <c r="C347" t="str">
+        <f>VLOOKUP(B347,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D347">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B348" t="s">
+        <v>8</v>
+      </c>
+      <c r="C348" t="str">
+        <f>VLOOKUP(B348,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D348">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B349" t="s">
+        <v>11</v>
+      </c>
+      <c r="C349" t="str">
+        <f>VLOOKUP(B349,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D349">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B350" t="s">
+        <v>19</v>
+      </c>
+      <c r="C350" t="str">
+        <f>VLOOKUP(B350,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Shopping &amp; Food</v>
+      </c>
+      <c r="D350">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B351" t="s">
+        <v>23</v>
+      </c>
+      <c r="C351" t="str">
+        <f>VLOOKUP(B351,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D351">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B352" t="s">
+        <v>85</v>
+      </c>
+      <c r="C352" t="str">
+        <f>VLOOKUP(B352,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D352">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B353" t="s">
+        <v>75</v>
+      </c>
+      <c r="C353" t="str">
+        <f>VLOOKUP(B353,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D353">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B354" t="s">
+        <v>13</v>
+      </c>
+      <c r="C354" t="str">
+        <f>VLOOKUP(B354,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D354">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B355" t="s">
+        <v>10</v>
+      </c>
+      <c r="C355" t="str">
+        <f>VLOOKUP(B355,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Shopping &amp; Food</v>
+      </c>
+      <c r="D355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B356" t="s">
+        <v>86</v>
+      </c>
+      <c r="C356" t="str">
+        <f>VLOOKUP(B356,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B357" t="s">
+        <v>14</v>
+      </c>
+      <c r="C357" t="str">
+        <f>VLOOKUP(B357,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B358" t="s">
+        <v>22</v>
+      </c>
+      <c r="C358" t="str">
+        <f>VLOOKUP(B358,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B359" t="s">
+        <v>16</v>
+      </c>
+      <c r="C359" t="str">
+        <f>VLOOKUP(B359,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B360" t="s">
+        <v>87</v>
+      </c>
+      <c r="C360" t="str">
+        <f>VLOOKUP(B360,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B361" t="s">
+        <v>57</v>
+      </c>
+      <c r="C361" t="str">
+        <f>VLOOKUP(B361,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B362" t="s">
+        <v>76</v>
+      </c>
+      <c r="C362" t="str">
+        <f>VLOOKUP(B362,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B363" t="s">
+        <v>7</v>
+      </c>
+      <c r="C363" t="str">
+        <f>VLOOKUP(B363,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D363">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" t="str">
+        <f>VLOOKUP(B364,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Entertainment</v>
+      </c>
+      <c r="D364">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B365" t="s">
+        <v>6</v>
+      </c>
+      <c r="C365" t="str">
+        <f>VLOOKUP(B365,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D365">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B366" t="s">
+        <v>11</v>
+      </c>
+      <c r="C366" t="str">
+        <f>VLOOKUP(B366,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D366">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B367" t="s">
+        <v>8</v>
+      </c>
+      <c r="C367" t="str">
+        <f>VLOOKUP(B367,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D367">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B368" t="s">
+        <v>23</v>
+      </c>
+      <c r="C368" t="str">
+        <f>VLOOKUP(B368,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D368">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B369" t="s">
+        <v>89</v>
+      </c>
+      <c r="C369" t="str">
+        <f>VLOOKUP(B369,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D369">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B370" t="s">
+        <v>9</v>
+      </c>
+      <c r="C370" t="str">
+        <f>VLOOKUP(B370,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Information &amp; Reading</v>
+      </c>
+      <c r="D370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B371" t="s">
+        <v>10</v>
+      </c>
+      <c r="C371" t="str">
+        <f>VLOOKUP(B371,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Shopping &amp; Food</v>
+      </c>
+      <c r="D371">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B372" t="s">
+        <v>19</v>
+      </c>
+      <c r="C372" t="str">
+        <f>VLOOKUP(B372,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Shopping &amp; Food</v>
+      </c>
+      <c r="D372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B373" t="s">
+        <v>12</v>
+      </c>
+      <c r="C373" t="str">
+        <f>VLOOKUP(B373,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B374" t="s">
+        <v>22</v>
+      </c>
+      <c r="C374" t="str">
+        <f>VLOOKUP(B374,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B375" t="s">
+        <v>90</v>
+      </c>
+      <c r="C375" t="str">
+        <f>VLOOKUP(B375,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B376" t="s">
+        <v>13</v>
+      </c>
+      <c r="C376" t="str">
+        <f>VLOOKUP(B376,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B377" t="s">
+        <v>7</v>
+      </c>
+      <c r="C377" t="str">
+        <f>VLOOKUP(B377,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D377">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378" t="str">
+        <f>VLOOKUP(B378,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Entertainment</v>
+      </c>
+      <c r="D378">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B379" t="s">
+        <v>6</v>
+      </c>
+      <c r="C379" t="str">
+        <f>VLOOKUP(B379,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D379">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B380" t="s">
+        <v>25</v>
+      </c>
+      <c r="C380" t="str">
+        <f>VLOOKUP(B380,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D380">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B381" t="s">
+        <v>8</v>
+      </c>
+      <c r="C381" t="str">
+        <f>VLOOKUP(B381,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D381">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B382" t="s">
+        <v>11</v>
+      </c>
+      <c r="C382" t="str">
+        <f>VLOOKUP(B382,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D382">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B383" t="s">
+        <v>13</v>
+      </c>
+      <c r="C383" t="str">
+        <f>VLOOKUP(B383,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D383">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B384" t="s">
+        <v>9</v>
+      </c>
+      <c r="C384" t="str">
+        <f>VLOOKUP(B384,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Information &amp; Reading</v>
+      </c>
+      <c r="D384">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B385" t="s">
+        <v>14</v>
+      </c>
+      <c r="C385" t="str">
+        <f>VLOOKUP(B385,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D385">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B386" t="s">
+        <v>15</v>
+      </c>
+      <c r="C386" t="str">
+        <f>VLOOKUP(B386,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Shopping &amp; Food</v>
+      </c>
+      <c r="D386">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B387" t="s">
+        <v>16</v>
+      </c>
+      <c r="C387" t="str">
+        <f>VLOOKUP(B387,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B388" t="s">
+        <v>10</v>
+      </c>
+      <c r="C388" t="str">
+        <f>VLOOKUP(B388,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Shopping &amp; Food</v>
+      </c>
+      <c r="D388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B389" t="s">
+        <v>23</v>
+      </c>
+      <c r="C389" t="str">
+        <f>VLOOKUP(B389,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B390" t="s">
+        <v>64</v>
+      </c>
+      <c r="C390" t="str">
+        <f>VLOOKUP(B390,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B391" t="s">
+        <v>7</v>
+      </c>
+      <c r="C391" t="str">
+        <f>VLOOKUP(B391,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D391">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B392" t="s">
+        <v>6</v>
+      </c>
+      <c r="C392" t="str">
+        <f>VLOOKUP(B392,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D392">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B393" t="s">
+        <v>11</v>
+      </c>
+      <c r="C393" t="str">
+        <f>VLOOKUP(B393,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D393">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B394" t="s">
+        <v>8</v>
+      </c>
+      <c r="C394" t="str">
+        <f>VLOOKUP(B394,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D394">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B395" t="s">
+        <v>60</v>
+      </c>
+      <c r="C395" t="str">
+        <f>VLOOKUP(B395,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D395">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396" t="str">
+        <f>VLOOKUP(B396,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Entertainment</v>
+      </c>
+      <c r="D396">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B397" t="s">
+        <v>50</v>
+      </c>
+      <c r="C397" t="str">
+        <f>VLOOKUP(B397,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D397">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B398" t="s">
+        <v>14</v>
+      </c>
+      <c r="C398" t="str">
+        <f>VLOOKUP(B398,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B399" t="s">
+        <v>19</v>
+      </c>
+      <c r="C399" t="str">
+        <f>VLOOKUP(B399,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Shopping &amp; Food</v>
+      </c>
+      <c r="D399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B400" t="s">
+        <v>22</v>
+      </c>
+      <c r="C400" t="str">
+        <f>VLOOKUP(B400,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B401" t="s">
+        <v>16</v>
+      </c>
+      <c r="C401" t="str">
+        <f>VLOOKUP(B401,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402" t="str">
+        <f>VLOOKUP(B402,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Entertainment</v>
+      </c>
+      <c r="D402">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B403" t="s">
+        <v>7</v>
+      </c>
+      <c r="C403" t="str">
+        <f>VLOOKUP(B403,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D403">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B404" t="s">
+        <v>8</v>
+      </c>
+      <c r="C404" t="str">
+        <f>VLOOKUP(B404,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D404">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B405" t="s">
+        <v>6</v>
+      </c>
+      <c r="C405" t="str">
+        <f>VLOOKUP(B405,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D405">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B406" t="s">
+        <v>94</v>
+      </c>
+      <c r="C406" t="str">
+        <f>VLOOKUP(B406,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Travel</v>
+      </c>
+      <c r="D406">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B407" t="s">
+        <v>56</v>
+      </c>
+      <c r="C407" t="str">
+        <f>VLOOKUP(B407,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D407">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B408" t="s">
+        <v>22</v>
+      </c>
+      <c r="C408" t="str">
+        <f>VLOOKUP(B408,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D408">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B409" t="s">
+        <v>13</v>
+      </c>
+      <c r="C409" t="str">
+        <f>VLOOKUP(B409,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D409">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B410" t="s">
+        <v>10</v>
+      </c>
+      <c r="C410" t="str">
+        <f>VLOOKUP(B410,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Shopping &amp; Food</v>
+      </c>
+      <c r="D410">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B411" t="s">
+        <v>11</v>
+      </c>
+      <c r="C411" t="str">
+        <f>VLOOKUP(B411,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D411">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B412" t="s">
+        <v>16</v>
+      </c>
+      <c r="C412" t="str">
+        <f>VLOOKUP(B412,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D412">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B413" t="s">
+        <v>14</v>
+      </c>
+      <c r="C413" t="str">
+        <f>VLOOKUP(B413,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D413">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B414" t="s">
+        <v>23</v>
+      </c>
+      <c r="C414" t="str">
+        <f>VLOOKUP(B414,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B415" t="s">
+        <v>55</v>
+      </c>
+      <c r="C415" t="str">
+        <f>VLOOKUP(B415,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Information &amp; Reading</v>
+      </c>
+      <c r="D415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B416" t="s">
+        <v>95</v>
+      </c>
+      <c r="C416" t="str">
+        <f>VLOOKUP(B416,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Information &amp; Reading</v>
+      </c>
+      <c r="D416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B417" t="s">
+        <v>57</v>
+      </c>
+      <c r="C417" t="str">
+        <f>VLOOKUP(B417,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B418" t="s">
+        <v>7</v>
+      </c>
+      <c r="C418" t="str">
+        <f>VLOOKUP(B418,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D418">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B419" t="s">
+        <v>6</v>
+      </c>
+      <c r="C419" t="str">
+        <f>VLOOKUP(B419,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D419">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B420" t="s">
+        <v>5</v>
+      </c>
+      <c r="C420" t="str">
+        <f>VLOOKUP(B420,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Entertainment</v>
+      </c>
+      <c r="D420">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B421" t="s">
+        <v>11</v>
+      </c>
+      <c r="C421" t="str">
+        <f>VLOOKUP(B421,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D421">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B422" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422" t="str">
+        <f>VLOOKUP(B422,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D422">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B423" t="s">
+        <v>97</v>
+      </c>
+      <c r="C423" t="str">
+        <f>VLOOKUP(B423,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D423">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B424" t="s">
+        <v>16</v>
+      </c>
+      <c r="C424" t="str">
+        <f>VLOOKUP(B424,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D424">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B425" t="s">
+        <v>25</v>
+      </c>
+      <c r="C425" t="str">
+        <f>VLOOKUP(B425,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D425">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B426" t="s">
+        <v>23</v>
+      </c>
+      <c r="C426" t="str">
+        <f>VLOOKUP(B426,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D426">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B427" t="s">
+        <v>63</v>
+      </c>
+      <c r="C427" t="str">
+        <f>VLOOKUP(B427,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Shopping &amp; Food</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B428" t="s">
+        <v>90</v>
+      </c>
+      <c r="C428" t="str">
+        <f>VLOOKUP(B428,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B429" t="s">
+        <v>7</v>
+      </c>
+      <c r="C429" t="str">
+        <f>VLOOKUP(B429,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D429">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B430" t="s">
+        <v>11</v>
+      </c>
+      <c r="C430" t="str">
+        <f>VLOOKUP(B430,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D430">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B431" t="s">
+        <v>6</v>
+      </c>
+      <c r="C431" t="str">
+        <f>VLOOKUP(B431,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D431">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B432" t="s">
+        <v>5</v>
+      </c>
+      <c r="C432" t="str">
+        <f>VLOOKUP(B432,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Entertainment</v>
+      </c>
+      <c r="D432">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A433" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B433" t="s">
+        <v>83</v>
+      </c>
+      <c r="C433" t="str">
+        <f>VLOOKUP(B433,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D433">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A434" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B434" t="s">
+        <v>25</v>
+      </c>
+      <c r="C434" t="str">
+        <f>VLOOKUP(B434,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D434">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B435" t="s">
+        <v>8</v>
+      </c>
+      <c r="C435" t="str">
+        <f>VLOOKUP(B435,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D435">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B436" t="s">
+        <v>16</v>
+      </c>
+      <c r="C436" t="str">
+        <f>VLOOKUP(B436,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D436">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B437" t="s">
+        <v>23</v>
+      </c>
+      <c r="C437" t="str">
+        <f>VLOOKUP(B437,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D437">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B438" t="s">
+        <v>50</v>
+      </c>
+      <c r="C438" t="str">
+        <f>VLOOKUP(B438,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A439" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B439" t="s">
+        <v>5</v>
+      </c>
+      <c r="C439" t="str">
+        <f>VLOOKUP(B439,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Entertainment</v>
+      </c>
+      <c r="D439">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A440" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B440" t="s">
+        <v>7</v>
+      </c>
+      <c r="C440" t="str">
+        <f>VLOOKUP(B440,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D440">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A441" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B441" t="s">
+        <v>8</v>
+      </c>
+      <c r="C441" t="str">
+        <f>VLOOKUP(B441,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D441">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B442" t="s">
+        <v>6</v>
+      </c>
+      <c r="C442" t="str">
+        <f>VLOOKUP(B442,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D442">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A443" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B443" t="s">
+        <v>14</v>
+      </c>
+      <c r="C443" t="str">
+        <f>VLOOKUP(B443,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D443">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B444" t="s">
+        <v>13</v>
+      </c>
+      <c r="C444" t="str">
+        <f>VLOOKUP(B444,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D444">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A445" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B445" t="s">
+        <v>11</v>
+      </c>
+      <c r="C445" t="str">
+        <f>VLOOKUP(B445,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D445">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A446" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B446" t="s">
+        <v>25</v>
+      </c>
+      <c r="C446" t="str">
+        <f>VLOOKUP(B446,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D446">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A447" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B447" t="s">
+        <v>19</v>
+      </c>
+      <c r="C447" t="str">
+        <f>VLOOKUP(B447,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Shopping &amp; Food</v>
+      </c>
+      <c r="D447">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A448" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B448" t="s">
+        <v>9</v>
+      </c>
+      <c r="C448" t="str">
+        <f>VLOOKUP(B448,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Information &amp; Reading</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A449" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B449" t="s">
+        <v>23</v>
+      </c>
+      <c r="C449" t="str">
+        <f>VLOOKUP(B449,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B450" t="s">
+        <v>16</v>
+      </c>
+      <c r="C450" t="str">
+        <f>VLOOKUP(B450,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Creativity</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B451" t="s">
+        <v>7</v>
+      </c>
+      <c r="C451" t="str">
+        <f>VLOOKUP(B451,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D451">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B452" t="s">
+        <v>5</v>
+      </c>
+      <c r="C452" t="str">
+        <f>VLOOKUP(B452,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Entertainment</v>
+      </c>
+      <c r="D452">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B453" t="s">
+        <v>6</v>
+      </c>
+      <c r="C453" t="str">
+        <f>VLOOKUP(B453,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D453">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B454" t="s">
+        <v>11</v>
+      </c>
+      <c r="C454" t="str">
+        <f>VLOOKUP(B454,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D454">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B455" t="s">
+        <v>8</v>
+      </c>
+      <c r="C455" t="str">
+        <f>VLOOKUP(B455,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Utilities</v>
+      </c>
+      <c r="D455">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B456" t="s">
+        <v>14</v>
+      </c>
+      <c r="C456" t="str">
+        <f>VLOOKUP(B456,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D456">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B457" t="s">
+        <v>13</v>
+      </c>
+      <c r="C457" t="str">
+        <f>VLOOKUP(B457,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Social</v>
+      </c>
+      <c r="D457">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B458" t="s">
+        <v>19</v>
+      </c>
+      <c r="C458" t="str">
+        <f>VLOOKUP(B458,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Shopping &amp; Food</v>
+      </c>
+      <c r="D458">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B459" t="s">
+        <v>9</v>
+      </c>
+      <c r="C459" t="str">
+        <f>VLOOKUP(B459,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Information &amp; Reading</v>
+      </c>
+      <c r="D459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B460" t="s">
+        <v>57</v>
+      </c>
+      <c r="C460" t="str">
+        <f>VLOOKUP(B460,'App Categories'!$A$2:$B$999,2,FALSE)</f>
+        <v>Productivity &amp; Finance</v>
+      </c>
+      <c r="D460">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D343" xr:uid="{78B59320-2933-854F-A7D5-043708D44B09}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5828,10 +7631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BE305D-C839-B141-8362-4E1E960235A8}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6215,6 +8018,70 @@
         <v>34</v>
       </c>
     </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
